--- a/spec/ASW/Veh/Driver/APP/APP_ChkSig/APP_ChkSig.xlsx
+++ b/spec/ASW/Veh/Driver/APP/APP_ChkSig/APP_ChkSig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\APP\APP_ChkSig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6941D28-78EB-4424-B527-8B5B3A3DA70F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,220 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_rFlt_mp</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Acceleration pedal position filtered value</t>
+  </si>
+  <si>
+    <t>APP_stPlaBrk_mp</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>State of plausibility APP with brake</t>
+  </si>
+  <si>
+    <t>Brk_st</t>
+  </si>
+  <si>
+    <t>Brake switch state</t>
+  </si>
+  <si>
+    <t>APP_stSigSrc_APP1_BP</t>
+  </si>
+  <si>
+    <t>Sensor 1 is the reference variable, Sensor 2 value is defective</t>
+  </si>
+  <si>
+    <t>APP_stSigSrc_APP2_BP</t>
+  </si>
+  <si>
+    <t>Sensor 2 is the reference variable,Sensor1 value is defective</t>
+  </si>
+  <si>
+    <t>APP_stSigSrc_APPLIMP_BP</t>
+  </si>
+  <si>
+    <t>Substitute operation active, accelerator pedal sensor value and accelerator pedal sensor increase are limited</t>
+  </si>
+  <si>
+    <t>RmtAPP_r</t>
+  </si>
+  <si>
+    <t>Value of Remote accelerator pedal Position</t>
+  </si>
+  <si>
+    <t>DrvDem_st</t>
+  </si>
+  <si>
+    <t>Drive demand status to select the pedal for setpoint calculation</t>
+  </si>
+  <si>
+    <t>T15_st</t>
+  </si>
+  <si>
+    <t>Terminal 15 status after debouncing</t>
+  </si>
+  <si>
+    <t>RmtAPP_stSigSrc_APPLIMP_BP</t>
+  </si>
+  <si>
+    <t>Substitute operation active, remote accelerator pedal sensor value and accelerator pedal sensor increase are limited</t>
+  </si>
+  <si>
+    <t>APP_r</t>
+  </si>
+  <si>
+    <t>Acceleration pedal sensor 1 value after fault handling</t>
+  </si>
+  <si>
+    <t>APP_rUnLim_mp</t>
+  </si>
+  <si>
+    <t>APP value not limited by alive detection</t>
+  </si>
+  <si>
+    <t>APP_rPla_mp</t>
+  </si>
+  <si>
+    <t>APP value after plausibility check with brake</t>
+  </si>
+  <si>
+    <t>APP_stAlive_mp</t>
+  </si>
+  <si>
+    <t>State of APP alive detection of APP</t>
+  </si>
+  <si>
+    <t>APP_swtAliveDetEna_C</t>
+  </si>
+  <si>
+    <t>Switch to enable alive detection</t>
+  </si>
+  <si>
+    <t>APP_tiAliveDebLoHi_C</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Debounce times for alive detection of APP / Time for a Low to High transition</t>
+  </si>
+  <si>
+    <t>APP_tiAliveDebHiLo_C</t>
+  </si>
+  <si>
+    <t>Debounce times for alive detection of APP / Time for a High to Low transition</t>
+  </si>
+  <si>
+    <t>APP_rThresAliveDet_C</t>
+  </si>
+  <si>
+    <t>APP threshold for alive detection</t>
+  </si>
+  <si>
+    <t>APP_drLimpMax_C</t>
+  </si>
+  <si>
+    <t>%/s</t>
+  </si>
+  <si>
+    <t>Limit for APP gradient in limphome mode</t>
+  </si>
+  <si>
+    <t>APP_rLimpMax_C</t>
+  </si>
+  <si>
+    <t>Limit for APP value in limphome mode</t>
+  </si>
+  <si>
+    <t>APP_rPlaMaxVal_C</t>
+  </si>
+  <si>
+    <t>Maximum APP value when plausibility with brake failed</t>
+  </si>
+  <si>
+    <t>APP_drLimPos_C</t>
+  </si>
+  <si>
+    <t>Ramp slope for substitutevalue in case of APP/Brake plausibilityerror / Slope if the ramp has to be increased</t>
+  </si>
+  <si>
+    <t>APP_drLimNeg_C</t>
+  </si>
+  <si>
+    <t>Ramp slope for substitutevalue in case of APP/Brake plausibilityerror / negative ramp slope</t>
+  </si>
+  <si>
+    <t>APP_swtPlaChkEna_C</t>
+  </si>
+  <si>
+    <t>Switch to enable plausibility check with brake</t>
+  </si>
+  <si>
+    <t>APP_rRmtAPPThresTrqDem_C</t>
+  </si>
+  <si>
+    <t>Threshold for Remote accelerator pedal sensor value for resetting the HLSDem "Torque demand"</t>
+  </si>
+  <si>
+    <t>APP_stRmtAppTrqEN_C</t>
+  </si>
+  <si>
+    <t>Remote accelerator pedal Torque Request enable</t>
+  </si>
+  <si>
+    <t>APP_tiRmtAppEN_C</t>
+  </si>
+  <si>
+    <t>Remote accelerator pedal initial check delay time</t>
+  </si>
+  <si>
+    <t>APP_rRmtAPPThresTrqDemL_C</t>
+  </si>
+  <si>
+    <t>Low Threshold for Remote accelerator pedal hysteresis comparator</t>
+  </si>
+  <si>
+    <t>APP_rRmtAPPThresTrqDemH_C</t>
+  </si>
+  <si>
+    <t>High Threshold for Remote accelerator pedal hysteresis comparato</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent_s</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Switch.ON</t>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
   </si>
 </sst>
 </file>
@@ -458,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +715,236 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>255</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>255</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +998,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1076,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1162,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,26 +1202,374 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>300</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C9" s="5">
+        <v>200</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C10" s="5">
+        <v>200</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="6"/>
